--- a/public/dashboard/excel-sheets-examples/pivot.xlsx
+++ b/public/dashboard/excel-sheets-examples/pivot.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aahme\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\Backend\marketeershub-system\public\dashboard\excel-sheets-examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC5C84B-13D6-4269-92DA-D07BFDD9155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -570,12 +569,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -583,21 +582,21 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -987,23 +986,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" customWidth="1"/>
-    <col min="5" max="5" width="20.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,12 +1019,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>55555</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
         <v>252112.8</v>
@@ -1037,12 +1036,12 @@
         <v>9566.02</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>5555</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>130307.51</v>
@@ -1054,12 +1053,12 @@
         <v>4615.67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>55555555</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>47176.29</v>
@@ -1071,12 +1070,12 @@
         <v>1848.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>555555</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5">
         <v>59148.67</v>
@@ -1088,7 +1087,7 @@
         <v>2493.7199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>1885.11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1121,7 @@
         <v>1019.48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>2093.64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>1232.29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>944.08</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1190,7 +1189,7 @@
         <v>1086.72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>1089.77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>1400.39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>1166.01</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>1088.43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>1170.69</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>807.1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>705.41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>1397.91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>790.05</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>1012.71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>823.38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>597.79</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>726.95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>508.91</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>467.06</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>436.08</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>416.4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>381.36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>531.27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>776.72</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1563,7 @@
         <v>787.22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>713.88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>505.03</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>393.71</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>409.67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>756.13</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>311.23</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>719.7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>218.92</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>263.23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>430.95</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>557.33000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>287.12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>440.25</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>50</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>952.51</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>262.08999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>304.67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>143.22</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>54</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>393.97</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>380.84</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>399.49</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>242.46</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -1938,7 +1937,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>252.85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -1972,7 +1971,7 @@
         <v>469.61</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>408.75</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>62</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>401.36</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -2023,7 +2022,7 @@
         <v>221.27</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>161.88999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>640.36</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
@@ -2074,7 +2073,7 @@
         <v>347.09</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>239.53</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>233.11</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>258.94</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>70</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>175.64</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>132.11000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>205.92</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>181.25</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>145.9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>99.64</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>76</v>
       </c>
@@ -2244,7 +2243,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>77</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>83.82</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>78</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>193.9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>98.53</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>80</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>226.48</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>81</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>82</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>246.19</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>282.58</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>84</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>147.12</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>85</v>
       </c>
@@ -2397,7 +2396,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>86</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>130.57</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>58.72</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>88</v>
       </c>
@@ -2448,7 +2447,7 @@
         <v>81.39</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>89</v>
       </c>
@@ -2465,7 +2464,7 @@
         <v>91.78</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>90</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>91</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>52.76</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>92</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>205.44</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
@@ -2533,7 +2532,7 @@
         <v>208.19</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>94</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>26.08</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>134.44</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>89.81</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>97</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>144.72</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>98</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>197.46</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>99</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>100.95</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>100</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>31.74</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>101</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>61.04</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>102</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>172.6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>103</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>73.260000000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>104</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>260.77999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>106</v>
       </c>
@@ -2754,7 +2753,7 @@
         <v>46.02</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -2771,7 +2770,7 @@
         <v>235.69</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>108</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>130.09</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>109</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>110</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>111</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>35.979999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>112</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>113</v>
       </c>
@@ -2873,7 +2872,7 @@
         <v>43.25</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>114</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>34.549999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>115</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>161.32</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>116</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>355.7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>117</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>85.56</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>118</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>119</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>50.27</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>120</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>30.67</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>121</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>122</v>
       </c>
@@ -3026,7 +3025,7 @@
         <v>25.29</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>123</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>53.37</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>124</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>125</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>126</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>127</v>
       </c>
@@ -3111,7 +3110,7 @@
         <v>52.16</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>128</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>129</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>130</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>131</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>132</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>16.170000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>133</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>134</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>135</v>
       </c>
@@ -3247,7 +3246,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>136</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>137</v>
       </c>
@@ -3281,7 +3280,7 @@
         <v>35.18</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>138</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>139</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>140</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>65.33</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>141</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>142</v>
       </c>
@@ -3366,7 +3365,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>143</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>31.54</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>144</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>145</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>64.69</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>146</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>147</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>148</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>149</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>21.49</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>150</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>41.26</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>151</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>152</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>124.41</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>153</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>154</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>155</v>
       </c>
@@ -3587,7 +3586,7 @@
         <v>47.24</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>156</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>14.93</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>157</v>
       </c>
@@ -3621,7 +3620,7 @@
         <v>33.36</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>158</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>159</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>69.08</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>160</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>161</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>26.68</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>162</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>163</v>
       </c>
@@ -3723,7 +3722,7 @@
         <v>125.91</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>164</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>165</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>166</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>167</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>168</v>
       </c>
@@ -3808,7 +3807,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>169</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>101.08</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>170</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>171</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>172</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>62.95</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>173</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>174</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>175</v>
       </c>
@@ -3927,7 +3926,7 @@
         <v>65.819999999999993</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>176</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>177</v>
       </c>
@@ -3961,7 +3960,7 @@
         <v>30.32</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>178</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>32.020000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>179</v>
       </c>
